--- a/Excel Data/StopPayment.xlsx
+++ b/Excel Data/StopPayment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stopPaymentCheque" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>TID</t>
   </si>
@@ -68,7 +68,19 @@
     <t>Stop payment of chequebook to check the functionality of stop payment of chequebook from RDA customer</t>
   </si>
   <si>
-    <t>CD.5000077367.0000002</t>
+    <t>CD.1000008617.0000002</t>
+  </si>
+  <si>
+    <t>CD.1000008617.0000004</t>
+  </si>
+  <si>
+    <t>Beneficiary</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -106,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -249,15 +261,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -269,6 +293,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +593,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -588,47 +614,47 @@
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>1000009659</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1234567789</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="A2" s="11">
+        <v>1000008617</v>
+      </c>
+      <c r="B2" s="10">
+        <v>50603706</v>
+      </c>
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>118445</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1007732686</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="F2" s="10"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="14">
+        <v>1000008617</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50603707</v>
+      </c>
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>118446</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="10"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -638,10 +664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,14 +676,15 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -670,87 +697,107 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>1000009659</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1000008617</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
+        <v>1041956</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1041981</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="10">
+        <v>118443</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>1000008617</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50603701</v>
+      </c>
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11">
-        <v>5</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3">
+        <v>50603725</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11">
-        <v>118443</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4">
-        <v>12345667</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="I3" s="13">
         <v>118447</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="10"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -762,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -776,7 +823,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -793,19 +840,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9">
-        <v>1000009659</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1234567787</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="A2" s="8">
+        <v>1000008617</v>
+      </c>
+      <c r="B2" s="6">
+        <v>50603704</v>
+      </c>
+      <c r="C2" s="6">
         <v>118444</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Excel Data/StopPayment.xlsx
+++ b/Excel Data/StopPayment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stopPaymentCheque" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>TID</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>BENEFICIARY:1</t>
+  </si>
+  <si>
+    <t>REMARKS:1:1</t>
   </si>
 </sst>
 </file>
@@ -575,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E1" sqref="E1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,13 +592,13 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -606,17 +612,23 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1000008617</v>
       </c>
@@ -629,14 +641,16 @@
       <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10">
         <v>118445</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="10"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14">
         <v>1000008617</v>
       </c>
@@ -649,12 +663,14 @@
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
         <v>118446</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -664,10 +680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,12 +694,12 @@
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -709,16 +725,19 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1000008617</v>
       </c>
@@ -743,15 +762,16 @@
       <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10">
         <v>118443</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1000008617</v>
       </c>
@@ -776,28 +796,34 @@
       <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="3"/>
+      <c r="J3" s="13">
         <v>118447</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -809,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
